--- a/2016昆山幼儿园科技/正式 成绩册.xlsx
+++ b/2016昆山幼儿园科技/正式 成绩册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" tabRatio="614" firstSheet="5" activeTab="15"/>
+    <workbookView windowWidth="20400" windowHeight="8550" tabRatio="614" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1940,12 +1940,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>1/24</t>
     </r>
     <r>
@@ -1974,17 +1968,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>最高排名</t>
+      <t>最好排名</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>双钻</t>
     </r>
     <r>
@@ -2022,7 +2010,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>最高排名</t>
+      <t>最好排名</t>
     </r>
   </si>
   <si>
@@ -2086,10 +2074,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;"/>
@@ -2201,7 +2189,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,61 +2257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2312,17 +2292,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,10 +2325,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2402,12 +2390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2420,18 +2402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2439,6 +2409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,7 +2438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,6 +2474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2493,6 +2487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,13 +2516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,25 +2546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,13 +2570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,39 +2632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2688,6 +2643,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2716,6 +2680,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2731,161 +2715,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5508,8 +5496,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6763,8 +6751,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7802,8 +7790,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -8055,7 +8043,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
@@ -8270,7 +8258,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
